--- a/Diagrams/Project Development Work Plan.xlsx
+++ b/Diagrams/Project Development Work Plan.xlsx
@@ -1,23 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11110"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20352"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chunxiao/Library/Mobile Documents/com~apple~CloudDocs/FALL2019/CS2012/Final/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jl8566\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D47DB8FB-90D7-A347-BEBE-E053139DB857}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75CD8386-E167-460C-9E0A-F81D7CB22316}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14025" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="GanttChart" sheetId="9" r:id="rId1"/>
   </sheets>
   <definedNames>
     <definedName name="prevWBS" localSheetId="0">GanttChart!$A1048576</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">GanttChart!$A$1:$AJ$44</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">GanttChart!$A$1:$AJ$45</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">GanttChart!$4:$7</definedName>
     <definedName name="valuevx">42.314159</definedName>
     <definedName name="vertex42_copyright" hidden="1">"© 2006-2018 Vertex42 LLC"</definedName>
@@ -25,14 +25,6 @@
     <definedName name="vertex42_title" hidden="1">"Gantt Chart Template"</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
@@ -436,7 +428,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="77">
   <si>
     <t>WBS</t>
   </si>
@@ -648,16 +640,25 @@
     <t xml:space="preserve">   Login and Registration Page</t>
   </si>
   <si>
-    <t xml:space="preserve">   Class Page</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   Student Interface</t>
-  </si>
-  <si>
     <t>Gantt Chart Template © 2006-2018 by Vertex42.com.</t>
   </si>
   <si>
     <t>Yiming,Ellen</t>
+  </si>
+  <si>
+    <t>Ellen, Yiming</t>
+  </si>
+  <si>
+    <t>3.2.5</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Courses Page</t>
+  </si>
+  <si>
+    <t>User profile</t>
+  </si>
+  <si>
+    <t>Forum and posts</t>
   </si>
 </sst>
 </file>
@@ -670,7 +671,7 @@
     <numFmt numFmtId="166" formatCode="d"/>
     <numFmt numFmtId="167" formatCode="d\ mmm\ yyyy"/>
   </numFmts>
-  <fonts count="46" x14ac:knownFonts="1">
+  <fonts count="47" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -964,8 +965,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1" tint="0.499984740745262"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="24">
+  <fills count="25">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1083,6 +1091,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="3" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1" tint="0.499984740745262"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1373,7 +1387,7 @@
     <xf numFmtId="0" fontId="24" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="71">
+  <cellXfs count="73">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="20" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyProtection="1"/>
@@ -1563,6 +1577,12 @@
     <xf numFmtId="164" fontId="44" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
       <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="24" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="24" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="44">
@@ -1611,7 +1631,33 @@
     <cellStyle name="Total" xfId="42" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="43" builtinId="11" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="4">
+  <dxfs count="7">
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FFC00000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC00000"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0070C0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <border>
         <left style="thin">
@@ -1807,11 +1853,11 @@
           <xdr:col>8</xdr:col>
           <xdr:colOff>0</xdr:colOff>
           <xdr:row>1</xdr:row>
-          <xdr:rowOff>127000</xdr:rowOff>
+          <xdr:rowOff>123825</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>25</xdr:col>
-          <xdr:colOff>139700</xdr:colOff>
+          <xdr:colOff>142875</xdr:colOff>
           <xdr:row>2</xdr:row>
           <xdr:rowOff>114300</xdr:rowOff>
         </xdr:to>
@@ -2143,27 +2189,27 @@
   <sheetPr codeName="Sheet8">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:AJ46"/>
+  <dimension ref="A1:AJ47"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="150" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="7" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H19" sqref="H19"/>
+      <pane ySplit="7" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="6.83203125" style="5" customWidth="1"/>
+    <col min="1" max="1" width="6.85546875" style="5" customWidth="1"/>
     <col min="2" max="2" width="19" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.83203125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="6.83203125" style="6" hidden="1" customWidth="1"/>
+    <col min="3" max="3" width="12.85546875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="6.85546875" style="6" hidden="1" customWidth="1"/>
     <col min="5" max="6" width="12" style="1" customWidth="1"/>
     <col min="7" max="7" width="6" style="1" customWidth="1"/>
-    <col min="8" max="8" width="6.6640625" style="1" customWidth="1"/>
-    <col min="9" max="36" width="2.5" style="1" customWidth="1"/>
-    <col min="37" max="16384" width="9.1640625" style="3"/>
+    <col min="8" max="8" width="6.7109375" style="1" customWidth="1"/>
+    <col min="9" max="36" width="2.42578125" style="1" customWidth="1"/>
+    <col min="37" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:36" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="57" t="s">
         <v>12</v>
       </c>
@@ -2194,7 +2240,7 @@
       <c r="AB1" s="61"/>
       <c r="AC1" s="61"/>
     </row>
-    <row r="2" spans="1:36" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:36" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="15" t="s">
         <v>9</v>
       </c>
@@ -2205,7 +2251,7 @@
       <c r="F2" s="60"/>
       <c r="H2" s="2"/>
     </row>
-    <row r="3" spans="1:36" ht="14" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:36" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A3" s="15"/>
       <c r="B3" s="11"/>
       <c r="C3" s="4"/>
@@ -2232,7 +2278,7 @@
       <c r="X3" s="8"/>
       <c r="Y3" s="8"/>
     </row>
-    <row r="4" spans="1:36" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:36" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="43"/>
       <c r="B4" s="46" t="s">
         <v>7</v>
@@ -2288,7 +2334,7 @@
       <c r="AI4" s="64"/>
       <c r="AJ4" s="65"/>
     </row>
-    <row r="5" spans="1:36" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:36" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="43"/>
       <c r="B5" s="46" t="s">
         <v>8</v>
@@ -2342,7 +2388,7 @@
       <c r="AI5" s="67"/>
       <c r="AJ5" s="68"/>
     </row>
-    <row r="6" spans="1:36" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A6" s="12"/>
       <c r="B6" s="13"/>
       <c r="C6" s="13"/>
@@ -2464,7 +2510,7 @@
         <v>43814</v>
       </c>
     </row>
-    <row r="7" spans="1:36" s="56" customFormat="1" ht="27" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:36" s="56" customFormat="1" ht="24.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="48" t="s">
         <v>0</v>
       </c>
@@ -2602,7 +2648,7 @@
         <v>S</v>
       </c>
     </row>
-    <row r="8" spans="1:36" s="18" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:36" s="18" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A8" s="27" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),TEXT(VALUE(prevWBS)+1,"#"),TEXT(VALUE(LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1))+1,"#")))</f>
         <v>1</v>
@@ -2648,7 +2694,7 @@
       <c r="AI8" s="39"/>
       <c r="AJ8" s="39"/>
     </row>
-    <row r="9" spans="1:36" s="23" customFormat="1" ht="26" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:36" s="23" customFormat="1" ht="24" x14ac:dyDescent="0.2">
       <c r="A9" s="22" t="str">
         <f t="shared" ref="A9:A16" si="2">IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
         <v>1.1</v>
@@ -2702,7 +2748,7 @@
       <c r="AI9" s="40"/>
       <c r="AJ9" s="40"/>
     </row>
-    <row r="10" spans="1:36" s="23" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:36" s="23" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="A10" s="22" t="s">
         <v>15</v>
       </c>
@@ -2755,7 +2801,7 @@
       <c r="AI10" s="40"/>
       <c r="AJ10" s="40"/>
     </row>
-    <row r="11" spans="1:36" s="23" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:36" s="23" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="A11" s="22" t="s">
         <v>16</v>
       </c>
@@ -2808,7 +2854,7 @@
       <c r="AI11" s="40"/>
       <c r="AJ11" s="40"/>
     </row>
-    <row r="12" spans="1:36" s="23" customFormat="1" ht="26" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:36" s="23" customFormat="1" ht="24" x14ac:dyDescent="0.2">
       <c r="A12" s="22" t="s">
         <v>19</v>
       </c>
@@ -2861,7 +2907,7 @@
       <c r="AI12" s="40"/>
       <c r="AJ12" s="40"/>
     </row>
-    <row r="13" spans="1:36" s="23" customFormat="1" ht="26" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:36" s="23" customFormat="1" ht="24" x14ac:dyDescent="0.2">
       <c r="A13" s="22" t="str">
         <f t="shared" si="2"/>
         <v>1.2</v>
@@ -2877,7 +2923,7 @@
         <v>43787</v>
       </c>
       <c r="F13" s="37">
-        <f t="shared" ref="F13:F44" si="4">IF(ISBLANK(E13)," - ",IF(G13=0,E13,E13+G13-1))</f>
+        <f t="shared" ref="F13:F45" si="4">IF(ISBLANK(E13)," - ",IF(G13=0,E13,E13+G13-1))</f>
         <v>43793</v>
       </c>
       <c r="G13" s="24">
@@ -2915,7 +2961,7 @@
       <c r="AI13" s="40"/>
       <c r="AJ13" s="40"/>
     </row>
-    <row r="14" spans="1:36" s="23" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:36" s="23" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="A14" s="22" t="s">
         <v>22</v>
       </c>
@@ -2968,7 +3014,7 @@
       <c r="AI14" s="40"/>
       <c r="AJ14" s="40"/>
     </row>
-    <row r="15" spans="1:36" s="23" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:36" s="23" customFormat="1" ht="24" x14ac:dyDescent="0.2">
       <c r="A15" s="22" t="s">
         <v>23</v>
       </c>
@@ -3021,7 +3067,7 @@
       <c r="AI15" s="40"/>
       <c r="AJ15" s="40"/>
     </row>
-    <row r="16" spans="1:36" s="23" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:36" s="23" customFormat="1" ht="24" x14ac:dyDescent="0.2">
       <c r="A16" s="22" t="str">
         <f t="shared" si="2"/>
         <v>1.3</v>
@@ -3075,7 +3121,7 @@
       <c r="AI16" s="40"/>
       <c r="AJ16" s="40"/>
     </row>
-    <row r="17" spans="1:36" s="23" customFormat="1" ht="26" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:36" s="23" customFormat="1" ht="24" x14ac:dyDescent="0.2">
       <c r="A17" s="22" t="s">
         <v>28</v>
       </c>
@@ -3128,7 +3174,7 @@
       <c r="AI17" s="40"/>
       <c r="AJ17" s="40"/>
     </row>
-    <row r="18" spans="1:36" s="23" customFormat="1" ht="26" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:36" s="23" customFormat="1" ht="24" x14ac:dyDescent="0.2">
       <c r="A18" s="22" t="s">
         <v>29</v>
       </c>
@@ -3181,7 +3227,7 @@
       <c r="AI18" s="40"/>
       <c r="AJ18" s="40"/>
     </row>
-    <row r="19" spans="1:36" s="18" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:36" s="18" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A19" s="16" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),TEXT(VALUE(prevWBS)+1,"#"),TEXT(VALUE(LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1))+1,"#")))</f>
         <v>2</v>
@@ -3226,7 +3272,7 @@
       <c r="AI19" s="42"/>
       <c r="AJ19" s="42"/>
     </row>
-    <row r="20" spans="1:36" s="23" customFormat="1" ht="26" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:36" s="23" customFormat="1" ht="24" x14ac:dyDescent="0.2">
       <c r="A20" s="22" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
         <v>2.1</v>
@@ -3280,7 +3326,7 @@
       <c r="AI20" s="40"/>
       <c r="AJ20" s="40"/>
     </row>
-    <row r="21" spans="1:36" s="23" customFormat="1" ht="26" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:36" s="23" customFormat="1" ht="24" x14ac:dyDescent="0.2">
       <c r="A21" s="22" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
         <v>2.2</v>
@@ -3334,7 +3380,7 @@
       <c r="AI21" s="40"/>
       <c r="AJ21" s="40"/>
     </row>
-    <row r="22" spans="1:36" s="23" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:36" s="23" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="A22" s="22" t="s">
         <v>36</v>
       </c>
@@ -3387,7 +3433,7 @@
       <c r="AI22" s="40"/>
       <c r="AJ22" s="40"/>
     </row>
-    <row r="23" spans="1:36" s="23" customFormat="1" ht="26" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:36" s="23" customFormat="1" ht="24" x14ac:dyDescent="0.2">
       <c r="A23" s="22" t="s">
         <v>37</v>
       </c>
@@ -3440,7 +3486,7 @@
       <c r="AI23" s="40"/>
       <c r="AJ23" s="40"/>
     </row>
-    <row r="24" spans="1:36" s="23" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:36" s="23" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="A24" s="22" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
         <v>2.3</v>
@@ -3494,7 +3540,7 @@
       <c r="AI24" s="40"/>
       <c r="AJ24" s="40"/>
     </row>
-    <row r="25" spans="1:36" s="23" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:36" s="23" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="A25" s="22" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
         <v>2.4</v>
@@ -3548,7 +3594,7 @@
       <c r="AI25" s="40"/>
       <c r="AJ25" s="40"/>
     </row>
-    <row r="26" spans="1:36" s="23" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:36" s="23" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="A26" s="22" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
         <v>2.5</v>
@@ -3602,7 +3648,7 @@
       <c r="AI26" s="40"/>
       <c r="AJ26" s="40"/>
     </row>
-    <row r="27" spans="1:36" s="18" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:36" s="18" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A27" s="16" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),TEXT(VALUE(prevWBS)+1,"#"),TEXT(VALUE(LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1))+1,"#")))</f>
         <v>3</v>
@@ -3647,7 +3693,7 @@
       <c r="AI27" s="42"/>
       <c r="AJ27" s="42"/>
     </row>
-    <row r="28" spans="1:36" s="23" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:36" s="23" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="A28" s="22" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
         <v>3.1</v>
@@ -3701,7 +3747,7 @@
       <c r="AI28" s="40"/>
       <c r="AJ28" s="40"/>
     </row>
-    <row r="29" spans="1:36" s="23" customFormat="1" ht="26" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:36" s="23" customFormat="1" ht="24" x14ac:dyDescent="0.2">
       <c r="A29" s="22" t="s">
         <v>45</v>
       </c>
@@ -3709,7 +3755,7 @@
         <v>47</v>
       </c>
       <c r="C29" s="23" t="s">
-        <v>14</v>
+        <v>72</v>
       </c>
       <c r="D29" s="59"/>
       <c r="E29" s="36">
@@ -3754,7 +3800,7 @@
       <c r="AI29" s="40"/>
       <c r="AJ29" s="40"/>
     </row>
-    <row r="30" spans="1:36" s="23" customFormat="1" ht="26" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:36" s="23" customFormat="1" ht="24" x14ac:dyDescent="0.2">
       <c r="A30" s="22" t="s">
         <v>46</v>
       </c>
@@ -3807,7 +3853,7 @@
       <c r="AI30" s="40"/>
       <c r="AJ30" s="40"/>
     </row>
-    <row r="31" spans="1:36" s="23" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:36" s="23" customFormat="1" ht="24" x14ac:dyDescent="0.2">
       <c r="A31" s="22" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
         <v>3.2</v>
@@ -3816,7 +3862,7 @@
         <v>49</v>
       </c>
       <c r="C31" s="23" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D31" s="59"/>
       <c r="E31" s="36">
@@ -3824,10 +3870,10 @@
       </c>
       <c r="F31" s="37">
         <f t="shared" si="4"/>
-        <v>43803</v>
+        <v>43805</v>
       </c>
       <c r="G31" s="24">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H31" s="25">
         <v>1</v>
@@ -3848,7 +3894,7 @@
       <c r="V31" s="40"/>
       <c r="W31" s="40"/>
       <c r="X31" s="40"/>
-      <c r="Y31" s="40"/>
+      <c r="Y31" s="71"/>
       <c r="Z31" s="40"/>
       <c r="AA31" s="40"/>
       <c r="AB31" s="40"/>
@@ -3861,7 +3907,7 @@
       <c r="AI31" s="40"/>
       <c r="AJ31" s="40"/>
     </row>
-    <row r="32" spans="1:36" s="23" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:36" s="23" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="A32" s="22" t="s">
         <v>64</v>
       </c>
@@ -3914,7 +3960,7 @@
       <c r="AI32" s="40"/>
       <c r="AJ32" s="40"/>
     </row>
-    <row r="33" spans="1:36" s="23" customFormat="1" ht="26" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:36" s="23" customFormat="1" ht="24" x14ac:dyDescent="0.2">
       <c r="A33" s="22" t="s">
         <v>65</v>
       </c>
@@ -3967,15 +4013,15 @@
       <c r="AI33" s="40"/>
       <c r="AJ33" s="40"/>
     </row>
-    <row r="34" spans="1:36" s="23" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:36" s="23" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="A34" s="22" t="s">
         <v>66</v>
       </c>
       <c r="B34" s="58" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="C34" s="23" t="s">
-        <v>14</v>
+        <v>34</v>
       </c>
       <c r="D34" s="59"/>
       <c r="E34" s="36">
@@ -4020,12 +4066,12 @@
       <c r="AI34" s="40"/>
       <c r="AJ34" s="40"/>
     </row>
-    <row r="35" spans="1:36" s="23" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:36" s="23" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="A35" s="22" t="s">
         <v>67</v>
       </c>
       <c r="B35" s="58" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="C35" s="23" t="s">
         <v>34</v>
@@ -4035,7 +4081,7 @@
         <v>43803</v>
       </c>
       <c r="F35" s="37">
-        <f t="shared" si="4"/>
+        <f>IF(ISBLANK(E35)," - ",IF(G35=0,E35,E35+G35-1))</f>
         <v>43805</v>
       </c>
       <c r="G35" s="24">
@@ -4073,27 +4119,26 @@
       <c r="AI35" s="40"/>
       <c r="AJ35" s="40"/>
     </row>
-    <row r="36" spans="1:36" s="23" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A36" s="22" t="str">
-        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
-        <v>3.3</v>
+    <row r="36" spans="1:36" s="23" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+      <c r="A36" s="22" t="s">
+        <v>73</v>
       </c>
       <c r="B36" s="58" t="s">
-        <v>50</v>
+        <v>76</v>
       </c>
       <c r="C36" s="23" t="s">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="D36" s="59"/>
       <c r="E36" s="36">
-        <v>43804</v>
+        <v>43803</v>
       </c>
       <c r="F36" s="37">
-        <f t="shared" si="4"/>
-        <v>43807</v>
+        <f>IF(ISBLANK(E36)," - ",IF(G36=0,E36,E36+G36-1))</f>
+        <v>43805</v>
       </c>
       <c r="G36" s="24">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H36" s="25">
         <v>1</v>
@@ -4127,111 +4172,112 @@
       <c r="AI36" s="40"/>
       <c r="AJ36" s="40"/>
     </row>
-    <row r="37" spans="1:36" s="18" customFormat="1" ht="14" x14ac:dyDescent="0.15">
-      <c r="A37" s="16" t="str">
+    <row r="37" spans="1:36" s="23" customFormat="1" ht="24" x14ac:dyDescent="0.2">
+      <c r="A37" s="22" t="str">
+        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
+        <v>3.3</v>
+      </c>
+      <c r="B37" s="58" t="s">
+        <v>50</v>
+      </c>
+      <c r="C37" s="23" t="s">
+        <v>72</v>
+      </c>
+      <c r="D37" s="59"/>
+      <c r="E37" s="36">
+        <v>43804</v>
+      </c>
+      <c r="F37" s="37">
+        <f t="shared" si="4"/>
+        <v>43808</v>
+      </c>
+      <c r="G37" s="24">
+        <v>5</v>
+      </c>
+      <c r="H37" s="25">
+        <v>1</v>
+      </c>
+      <c r="I37" s="40"/>
+      <c r="J37" s="40"/>
+      <c r="K37" s="40"/>
+      <c r="L37" s="40"/>
+      <c r="M37" s="40"/>
+      <c r="N37" s="40"/>
+      <c r="O37" s="40"/>
+      <c r="P37" s="40"/>
+      <c r="Q37" s="40"/>
+      <c r="R37" s="40"/>
+      <c r="S37" s="40"/>
+      <c r="T37" s="40"/>
+      <c r="U37" s="40"/>
+      <c r="V37" s="40"/>
+      <c r="W37" s="40"/>
+      <c r="X37" s="40"/>
+      <c r="Y37" s="40"/>
+      <c r="Z37" s="40"/>
+      <c r="AA37" s="40"/>
+      <c r="AB37" s="40"/>
+      <c r="AC37" s="40"/>
+      <c r="AD37" s="72"/>
+      <c r="AE37" s="40"/>
+      <c r="AF37" s="40"/>
+      <c r="AG37" s="40"/>
+      <c r="AH37" s="40"/>
+      <c r="AI37" s="40"/>
+      <c r="AJ37" s="40"/>
+    </row>
+    <row r="38" spans="1:36" s="18" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A38" s="16" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),TEXT(VALUE(prevWBS)+1,"#"),TEXT(VALUE(LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1))+1,"#")))</f>
         <v>4</v>
       </c>
-      <c r="B37" s="17" t="s">
+      <c r="B38" s="17" t="s">
         <v>53</v>
       </c>
-      <c r="D37" s="19"/>
-      <c r="E37" s="38"/>
-      <c r="F37" s="38" t="str">
+      <c r="D38" s="19"/>
+      <c r="E38" s="38"/>
+      <c r="F38" s="38" t="str">
         <f t="shared" si="4"/>
         <v xml:space="preserve"> - </v>
       </c>
-      <c r="G37" s="20"/>
-      <c r="H37" s="21"/>
-      <c r="I37" s="42"/>
-      <c r="J37" s="42"/>
-      <c r="K37" s="42"/>
-      <c r="L37" s="42"/>
-      <c r="M37" s="42"/>
-      <c r="N37" s="42"/>
-      <c r="O37" s="42"/>
-      <c r="P37" s="42"/>
-      <c r="Q37" s="42"/>
-      <c r="R37" s="42"/>
-      <c r="S37" s="42"/>
-      <c r="T37" s="42"/>
-      <c r="U37" s="42"/>
-      <c r="V37" s="42"/>
-      <c r="W37" s="42"/>
-      <c r="X37" s="42"/>
-      <c r="Y37" s="42"/>
-      <c r="Z37" s="42"/>
-      <c r="AA37" s="42"/>
-      <c r="AB37" s="42"/>
-      <c r="AC37" s="42"/>
-      <c r="AD37" s="42"/>
-      <c r="AE37" s="42"/>
-      <c r="AF37" s="42"/>
-      <c r="AG37" s="42"/>
-      <c r="AH37" s="42"/>
-      <c r="AI37" s="42"/>
-      <c r="AJ37" s="42"/>
+      <c r="G38" s="20"/>
+      <c r="H38" s="21"/>
+      <c r="I38" s="42"/>
+      <c r="J38" s="42"/>
+      <c r="K38" s="42"/>
+      <c r="L38" s="42"/>
+      <c r="M38" s="42"/>
+      <c r="N38" s="42"/>
+      <c r="O38" s="42"/>
+      <c r="P38" s="42"/>
+      <c r="Q38" s="42"/>
+      <c r="R38" s="42"/>
+      <c r="S38" s="42"/>
+      <c r="T38" s="42"/>
+      <c r="U38" s="42"/>
+      <c r="V38" s="42"/>
+      <c r="W38" s="42"/>
+      <c r="X38" s="42"/>
+      <c r="Y38" s="42"/>
+      <c r="Z38" s="42"/>
+      <c r="AA38" s="42"/>
+      <c r="AB38" s="42"/>
+      <c r="AC38" s="42"/>
+      <c r="AD38" s="42"/>
+      <c r="AE38" s="42"/>
+      <c r="AF38" s="42"/>
+      <c r="AG38" s="42"/>
+      <c r="AH38" s="42"/>
+      <c r="AI38" s="42"/>
+      <c r="AJ38" s="42"/>
     </row>
-    <row r="38" spans="1:36" s="23" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A38" s="22" t="str">
+    <row r="39" spans="1:36" s="23" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+      <c r="A39" s="22" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
         <v>4.1</v>
       </c>
-      <c r="B38" s="58" t="s">
+      <c r="B39" s="58" t="s">
         <v>54</v>
-      </c>
-      <c r="C38" s="23" t="s">
-        <v>27</v>
-      </c>
-      <c r="D38" s="59"/>
-      <c r="E38" s="36">
-        <v>43807</v>
-      </c>
-      <c r="F38" s="37">
-        <f t="shared" si="4"/>
-        <v>43808</v>
-      </c>
-      <c r="G38" s="24">
-        <v>2</v>
-      </c>
-      <c r="H38" s="25">
-        <v>1</v>
-      </c>
-      <c r="I38" s="40"/>
-      <c r="J38" s="40"/>
-      <c r="K38" s="40"/>
-      <c r="L38" s="40"/>
-      <c r="M38" s="40"/>
-      <c r="N38" s="40"/>
-      <c r="O38" s="40"/>
-      <c r="P38" s="40"/>
-      <c r="Q38" s="40"/>
-      <c r="R38" s="40"/>
-      <c r="S38" s="40"/>
-      <c r="T38" s="40"/>
-      <c r="U38" s="40"/>
-      <c r="V38" s="40"/>
-      <c r="W38" s="40"/>
-      <c r="X38" s="40"/>
-      <c r="Y38" s="40"/>
-      <c r="Z38" s="40"/>
-      <c r="AA38" s="40"/>
-      <c r="AB38" s="40"/>
-      <c r="AC38" s="40"/>
-      <c r="AD38" s="40"/>
-      <c r="AE38" s="40"/>
-      <c r="AF38" s="40"/>
-      <c r="AG38" s="40"/>
-      <c r="AH38" s="40"/>
-      <c r="AI38" s="40"/>
-      <c r="AJ38" s="40"/>
-    </row>
-    <row r="39" spans="1:36" s="23" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A39" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="B39" s="58" t="s">
-        <v>56</v>
       </c>
       <c r="C39" s="23" t="s">
         <v>27</v>
@@ -4279,24 +4325,23 @@
       <c r="AI39" s="40"/>
       <c r="AJ39" s="40"/>
     </row>
-    <row r="40" spans="1:36" s="23" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A40" s="22" t="str">
-        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
-        <v>4.2</v>
+    <row r="40" spans="1:36" s="23" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+      <c r="A40" s="22" t="s">
+        <v>55</v>
       </c>
       <c r="B40" s="58" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C40" s="23" t="s">
-        <v>73</v>
+        <v>27</v>
       </c>
       <c r="D40" s="59"/>
       <c r="E40" s="36">
-        <v>43809</v>
+        <v>43807</v>
       </c>
       <c r="F40" s="37">
         <f t="shared" si="4"/>
-        <v>43810</v>
+        <v>43808</v>
       </c>
       <c r="G40" s="24">
         <v>2</v>
@@ -4333,22 +4378,23 @@
       <c r="AI40" s="40"/>
       <c r="AJ40" s="40"/>
     </row>
-    <row r="41" spans="1:36" s="23" customFormat="1" ht="26" x14ac:dyDescent="0.15">
-      <c r="A41" s="22" t="s">
-        <v>58</v>
+    <row r="41" spans="1:36" s="23" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+      <c r="A41" s="22" t="str">
+        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
+        <v>4.2</v>
       </c>
       <c r="B41" s="58" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="C41" s="23" t="s">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="D41" s="59"/>
       <c r="E41" s="36">
         <v>43809</v>
       </c>
       <c r="F41" s="37">
-        <f>IF(ISBLANK(E41)," - ",IF(G41=0,E41,E41+G41-1))</f>
+        <f t="shared" si="4"/>
         <v>43810</v>
       </c>
       <c r="G41" s="24">
@@ -4386,15 +4432,15 @@
       <c r="AI41" s="40"/>
       <c r="AJ41" s="40"/>
     </row>
-    <row r="42" spans="1:36" s="23" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:36" s="23" customFormat="1" ht="24" x14ac:dyDescent="0.2">
       <c r="A42" s="22" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="B42" s="58" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C42" s="23" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D42" s="59"/>
       <c r="E42" s="36">
@@ -4439,22 +4485,22 @@
       <c r="AI42" s="40"/>
       <c r="AJ42" s="40"/>
     </row>
-    <row r="43" spans="1:36" s="23" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A43" s="22">
-        <v>4.3</v>
+    <row r="43" spans="1:36" s="23" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+      <c r="A43" s="22" t="s">
+        <v>63</v>
       </c>
       <c r="B43" s="58" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="C43" s="23" t="s">
-        <v>27</v>
+        <v>71</v>
       </c>
       <c r="D43" s="59"/>
       <c r="E43" s="36">
         <v>43809</v>
       </c>
       <c r="F43" s="37">
-        <f t="shared" si="4"/>
+        <f>IF(ISBLANK(E43)," - ",IF(G43=0,E43,E43+G43-1))</f>
         <v>43810</v>
       </c>
       <c r="G43" s="24">
@@ -4492,27 +4538,29 @@
       <c r="AI43" s="40"/>
       <c r="AJ43" s="40"/>
     </row>
-    <row r="44" spans="1:36" s="23" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A44" s="22" t="str">
-        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
-        <v>4.4</v>
+    <row r="44" spans="1:36" s="23" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+      <c r="A44" s="22">
+        <v>4.3</v>
       </c>
       <c r="B44" s="58" t="s">
-        <v>60</v>
+        <v>59</v>
+      </c>
+      <c r="C44" s="23" t="s">
+        <v>27</v>
       </c>
       <c r="D44" s="59"/>
       <c r="E44" s="36">
-        <v>43811</v>
+        <v>43809</v>
       </c>
       <c r="F44" s="37">
         <f t="shared" si="4"/>
-        <v>43811</v>
+        <v>43810</v>
       </c>
       <c r="G44" s="24">
+        <v>2</v>
+      </c>
+      <c r="H44" s="25">
         <v>1</v>
-      </c>
-      <c r="H44" s="25">
-        <v>0</v>
       </c>
       <c r="I44" s="40"/>
       <c r="J44" s="40"/>
@@ -4543,12 +4591,63 @@
       <c r="AI44" s="40"/>
       <c r="AJ44" s="40"/>
     </row>
-    <row r="45" spans="1:36" x14ac:dyDescent="0.15">
-      <c r="A45" s="3"/>
+    <row r="45" spans="1:36" s="23" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A45" s="22" t="str">
+        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
+        <v>4.4</v>
+      </c>
+      <c r="B45" s="58" t="s">
+        <v>60</v>
+      </c>
+      <c r="D45" s="59"/>
+      <c r="E45" s="36">
+        <v>43811</v>
+      </c>
+      <c r="F45" s="37">
+        <f t="shared" si="4"/>
+        <v>43811</v>
+      </c>
+      <c r="G45" s="24">
+        <v>1</v>
+      </c>
+      <c r="H45" s="25">
+        <v>0</v>
+      </c>
+      <c r="I45" s="40"/>
+      <c r="J45" s="40"/>
+      <c r="K45" s="40"/>
+      <c r="L45" s="40"/>
+      <c r="M45" s="40"/>
+      <c r="N45" s="40"/>
+      <c r="O45" s="40"/>
+      <c r="P45" s="40"/>
+      <c r="Q45" s="40"/>
+      <c r="R45" s="40"/>
+      <c r="S45" s="40"/>
+      <c r="T45" s="40"/>
+      <c r="U45" s="40"/>
+      <c r="V45" s="40"/>
+      <c r="W45" s="40"/>
+      <c r="X45" s="40"/>
+      <c r="Y45" s="40"/>
+      <c r="Z45" s="40"/>
+      <c r="AA45" s="40"/>
+      <c r="AB45" s="40"/>
+      <c r="AC45" s="40"/>
+      <c r="AD45" s="40"/>
+      <c r="AE45" s="40"/>
+      <c r="AF45" s="40"/>
+      <c r="AG45" s="40"/>
+      <c r="AH45" s="40"/>
+      <c r="AI45" s="40"/>
+      <c r="AJ45" s="40"/>
     </row>
-    <row r="46" spans="1:36" x14ac:dyDescent="0.15">
-      <c r="A46" s="5" t="s">
-        <v>72</v>
+    <row r="46" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="A46" s="3"/>
+    </row>
+    <row r="47" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="A47" s="5" t="s">
+        <v>70</v>
       </c>
     </row>
   </sheetData>
@@ -4566,7 +4665,7 @@
     <mergeCell ref="C5:G5"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
-  <conditionalFormatting sqref="H8:H44">
+  <conditionalFormatting sqref="H8:H45">
     <cfRule type="dataBar" priority="2">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -4581,21 +4680,34 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I6:AJ7">
-    <cfRule type="expression" dxfId="3" priority="45">
+    <cfRule type="expression" dxfId="6" priority="45">
       <formula>I$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I8:AJ44">
-    <cfRule type="expression" dxfId="2" priority="48">
+  <conditionalFormatting sqref="I8:AJ30 I31:X31 AA31:AJ31 I32:AJ45">
+    <cfRule type="expression" dxfId="5" priority="48">
       <formula>AND($E8&lt;=I$6,ROUNDDOWN(($F8-$E8+1)*$H8,0)+$E8-1&gt;=I$6)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1" priority="49">
+    <cfRule type="expression" dxfId="4" priority="49">
       <formula>AND(NOT(ISBLANK($E8)),$E8&lt;=I$6,$F8&gt;=I$6)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I6:AJ44">
-    <cfRule type="expression" dxfId="0" priority="8">
+  <conditionalFormatting sqref="I6:AJ30 I31:X31 AA31:AJ31 I32:AJ45">
+    <cfRule type="expression" dxfId="3" priority="8">
       <formula>I$6=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Z31">
+    <cfRule type="expression" dxfId="2" priority="52">
+      <formula>AND($E31&lt;=Y$6,ROUNDDOWN(($F31-$E31+1)*$H31,0)+$E31-1&gt;=Y$6)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="53">
+      <formula>AND(NOT(ISBLANK($E31)),$E31&lt;=Y$6,$F31&gt;=Y$6)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Z31">
+    <cfRule type="expression" dxfId="0" priority="55">
+      <formula>Y$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
@@ -4605,8 +4717,8 @@
   <pageSetup scale="63" fitToHeight="0" orientation="landscape" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
   <ignoredErrors>
-    <ignoredError sqref="E19 E27 E37 G19:H19 G27:H27 G44:H44 G37:H37" unlockedFormula="1"/>
-    <ignoredError sqref="A37 A27 A19" formula="1"/>
+    <ignoredError sqref="E19 E27 E38 G19:H19 G27:H27 G45:H45 G38:H38" unlockedFormula="1"/>
+    <ignoredError sqref="A38 A27 A19" formula="1"/>
   </ignoredErrors>
   <drawing r:id="rId2"/>
   <legacyDrawing r:id="rId3"/>
@@ -4622,11 +4734,11 @@
                     <xdr:col>8</xdr:col>
                     <xdr:colOff>0</xdr:colOff>
                     <xdr:row>1</xdr:row>
-                    <xdr:rowOff>127000</xdr:rowOff>
+                    <xdr:rowOff>123825</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>25</xdr:col>
-                    <xdr:colOff>139700</xdr:colOff>
+                    <xdr:colOff>142875</xdr:colOff>
                     <xdr:row>2</xdr:row>
                     <xdr:rowOff>114300</xdr:rowOff>
                   </to>
@@ -4654,7 +4766,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>H8:H44</xm:sqref>
+          <xm:sqref>H8:H45</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
